--- a/type_hint/cau_3.xlsx
+++ b/type_hint/cau_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chuyendephattrienweb1\type_hint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95DB40F8-D210-4F1D-BE9E-81DCEEF26288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C5A95-E3B9-4859-8942-FD89ABFB14C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA47C189-3966-47AB-A132-7F5EB7CFBADA}"/>
   </bookViews>
@@ -33,6 +33,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+  <si>
+    <t>Return/Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -52,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,12 +83,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -380,14 +419,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B7FEC2-2079-404A-BBBE-5004A8E94309}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>